--- a/消防/05_日报/508工作汇报.xlsx
+++ b/消防/05_日报/508工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>待验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年05月08日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,6 +113,10 @@
       </rPr>
       <t>。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月08日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,14 +224,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -520,7 +520,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,14 +532,14 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -582,24 +582,24 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
